--- a/参考文档(附录2).xlsx
+++ b/参考文档(附录2).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\covscript\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\covscript-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>typeid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +419,10 @@
   </si>
   <si>
     <t>乘方/乘方等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,6 +628,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,10 +643,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,22 +661,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1045,48 +1041,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1095,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -1115,955 +1111,916 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+        <v>74</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="E31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>85</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="E30:P30"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B35:P35"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G24:Q29"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:Q17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="C14:Q15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="N7:N11"/>
-    <mergeCell ref="B12:N13"/>
-    <mergeCell ref="O5:Q13"/>
+  <mergeCells count="55">
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D21:Q23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E31:Q31"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:Q34"/>
@@ -2080,18 +2037,33 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K8:M11"/>
     <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D21:Q23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E31:Q31"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N7:N11"/>
+    <mergeCell ref="B12:N13"/>
+    <mergeCell ref="O5:Q13"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="C14:Q15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:Q17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="E30:P30"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B35:P35"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G24:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
